--- a/Сравнение эффективности алгоритмов.xlsx
+++ b/Сравнение эффективности алгоритмов.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79535\Desktop\Диплом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3534ED50-60C6-490D-B861-77DB3394F896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C64EC7-BC0D-46FE-A563-DE05E92FF347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{211160BF-2A63-4B5C-BAA6-6A02063159D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{211160BF-2A63-4B5C-BAA6-6A02063159D2}"/>
   </bookViews>
   <sheets>
     <sheet name="% занятых серверов" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>Кол-во сервисов</t>
   </si>
@@ -100,6 +100,12 @@
   <si>
     <t>Функция приспособленности оптимального решения</t>
   </si>
+  <si>
+    <t>Максимальная заполненность CPU, %</t>
+  </si>
+  <si>
+    <t>Использование Cpu, %</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,11 +152,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -182,6 +197,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1302,6 +1318,1040 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
+              <a:t>Использование </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cpu Windows </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>серверов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Алгоритм BFD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$G$3:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>WIN_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WIN_2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WIN_3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LIN_4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LIN_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Сравнение заполняемости'!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F763-4BBA-AF67-BE498F7000B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Генетический алгоритм</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$G$3:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>WIN_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WIN_2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WIN_3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LIN_4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LIN_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Сравнение заполняемости'!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F763-4BBA-AF67-BE498F7000B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Алгоритм имитации отжига</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$G$3:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>WIN_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WIN_2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WIN_3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LIN_4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LIN_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Сравнение заполняемости'!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F763-4BBA-AF67-BE498F7000B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1202476959"/>
+        <c:axId val="1202480703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1202476959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202480703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1202480703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202476959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Использование </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cpu Linux </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>серверов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Алгоритм BFD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$G$6:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LIN_4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LIN_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$M$3:$M$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$M$6:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-783C-4583-8EF7-A93FD5691984}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Генетический алгоритм</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$G$6:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LIN_4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LIN_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$N$3:$N$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$N$6:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-783C-4583-8EF7-A93FD5691984}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Алгоритм имитации отжига</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$G$6:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LIN_4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LIN_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$O$3:$O$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$O$6:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-783C-4583-8EF7-A93FD5691984}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1202476959"/>
+        <c:axId val="1202480703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1202476959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202480703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1202480703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202476959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
               <a:t>Зависимость точности результата от вероятности мутации</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
@@ -1410,37 +2460,37 @@
                 <c:formatCode>0,00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>299.35483870967744</c:v>
+                  <c:v>115.05144771476429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.8982630272953</c:v>
+                  <c:v>29.24144532184733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.347394540942929</c:v>
+                  <c:v>17.587939698492466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3672456575682332</c:v>
+                  <c:v>4.917444364680545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3672456575682332</c:v>
+                  <c:v>4.917444364680545</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3672456575682332</c:v>
+                  <c:v>4.917444364680545</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3672456575682332</c:v>
+                  <c:v>4.917444364680545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3672456575682332</c:v>
+                  <c:v>4.917444364680545</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3672456575682332</c:v>
+                  <c:v>4.917444364680545</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3672456575682332</c:v>
+                  <c:v>4.917444364680545</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3672456575682332</c:v>
+                  <c:v>4.917444364680545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2587,7 +3637,7 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>40</c:v>
@@ -4021,7 +5071,7 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>40</c:v>
@@ -6558,6 +7608,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
@@ -9787,6 +10917,1082 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10715,6 +12921,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD13060C-9542-4347-BB95-F91D84CBFB58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24E9338-E707-4C02-A471-F2CD2A7CDD49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11058,7 +13340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B301D081-5F1D-4ACB-AEC9-53286A1426A9}">
   <dimension ref="C1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -11071,14 +13353,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -11205,14 +13487,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
@@ -11328,8 +13610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F72358-961F-4AC2-9383-C4E947969187}">
   <dimension ref="C1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:H28"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11345,18 +13627,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="G1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="16"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
@@ -11496,7 +13778,7 @@
         <v>25</v>
       </c>
       <c r="J8" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
@@ -11608,12 +13890,12 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
@@ -11743,9 +14025,9 @@
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
@@ -11879,7 +14161,7 @@
   <dimension ref="B3:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="B3" sqref="B3:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11891,19 +14173,19 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -12067,10 +14349,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB825C20-96F5-47BD-A2E4-C53225734F7A}">
-  <dimension ref="B1:J7"/>
+  <dimension ref="B1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12083,23 +14365,33 @@
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
-    <row r="2" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
@@ -12124,8 +14416,20 @@
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -12150,8 +14454,20 @@
       <c r="J3" s="1">
         <v>99</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1">
+        <v>100</v>
+      </c>
+      <c r="N3" s="1">
+        <v>98</v>
+      </c>
+      <c r="O3" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -12176,8 +14492,20 @@
       <c r="J4" s="1">
         <v>58</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1">
+        <v>50</v>
+      </c>
+      <c r="N4" s="1">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -12202,8 +14530,20 @@
       <c r="J5" s="1">
         <v>48</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1">
+        <v>22</v>
+      </c>
+      <c r="N5" s="1">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -12228,8 +14568,20 @@
       <c r="J6" s="1">
         <v>81</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1">
+        <v>14</v>
+      </c>
+      <c r="N6" s="1">
+        <v>21</v>
+      </c>
+      <c r="O6" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -12254,11 +14606,24 @@
       <c r="J7" s="1">
         <v>10</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="1">
+        <v>15</v>
+      </c>
+      <c r="N7" s="1">
+        <v>13</v>
+      </c>
+      <c r="O7" s="1">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12268,10 +14633,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5C7700-9C78-47DF-8A2D-36AB2E00CFDE}">
-  <dimension ref="B2:E30"/>
+  <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12280,9 +14645,10 @@
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -12295,41 +14661,50 @@
       <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F2" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>0.55600000000000005</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="D3" s="1">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1">
         <v>92</v>
       </c>
-      <c r="E3" s="1">
-        <v>83</v>
+      <c r="F3" s="1">
+        <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>0.748</v>
+        <v>1.012</v>
       </c>
       <c r="D4" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E4" s="1">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="F4" s="1">
+        <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0149999999999999</v>
+        <v>1.514</v>
       </c>
       <c r="D5" s="1">
         <v>96</v>
@@ -12337,70 +14712,65 @@
       <c r="E5" s="1">
         <v>94</v>
       </c>
+      <c r="F5" s="1">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>1.214</v>
+        <v>1.921</v>
       </c>
       <c r="D6" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="F6" s="1">
+        <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>1.2350000000000001</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1">
         <v>99</v>
       </c>
+      <c r="F7" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>98</v>
-      </c>
-      <c r="E8" s="1">
-        <v>99</v>
-      </c>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.548</v>
-      </c>
-      <c r="D9" s="1">
-        <v>99</v>
-      </c>
-      <c r="E9" s="1">
-        <v>99</v>
-      </c>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="13" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -12414,49 +14784,49 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>0.05</v>
       </c>
       <c r="C14" s="1">
-        <v>-40.17</v>
+        <v>-12.58</v>
       </c>
       <c r="D14" s="1">
-        <v>20.149999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="E14" s="14">
         <f>((D14-C14)/D14)*100</f>
-        <v>299.35483870967744</v>
+        <v>115.05144771476429</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>0.1</v>
       </c>
       <c r="C15" s="1">
-        <v>-5.42</v>
+        <v>59.14</v>
       </c>
       <c r="D15" s="1">
-        <v>20.149999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="E15" s="14">
         <f t="shared" ref="E15:E24" si="0">((D15-C15)/D15)*100</f>
-        <v>126.8982630272953</v>
+        <v>29.24144532184733</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>0.2</v>
       </c>
       <c r="C16" s="1">
-        <v>12.02</v>
+        <v>68.88</v>
       </c>
       <c r="D16" s="1">
-        <v>20.149999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="E16" s="14">
         <f t="shared" si="0"/>
-        <v>40.347394540942929</v>
+        <v>17.587939698492466</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -12464,14 +14834,14 @@
         <v>0.3</v>
       </c>
       <c r="C17" s="1">
-        <v>19.27</v>
+        <v>79.47</v>
       </c>
       <c r="D17" s="1">
-        <v>20.149999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="E17" s="14">
         <f t="shared" si="0"/>
-        <v>4.3672456575682332</v>
+        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -12479,14 +14849,14 @@
         <v>0.4</v>
       </c>
       <c r="C18" s="1">
-        <v>19.27</v>
+        <v>79.47</v>
       </c>
       <c r="D18" s="1">
-        <v>20.149999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="E18" s="14">
         <f t="shared" si="0"/>
-        <v>4.3672456575682332</v>
+        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -12494,14 +14864,14 @@
         <v>0.5</v>
       </c>
       <c r="C19" s="1">
-        <v>19.27</v>
+        <v>79.47</v>
       </c>
       <c r="D19" s="1">
-        <v>20.149999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="E19" s="14">
         <f t="shared" si="0"/>
-        <v>4.3672456575682332</v>
+        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -12509,14 +14879,14 @@
         <v>0.6</v>
       </c>
       <c r="C20" s="1">
-        <v>19.27</v>
+        <v>79.47</v>
       </c>
       <c r="D20" s="1">
-        <v>20.149999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" si="0"/>
-        <v>4.3672456575682332</v>
+        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -12524,14 +14894,14 @@
         <v>0.7</v>
       </c>
       <c r="C21" s="1">
-        <v>19.27</v>
+        <v>79.47</v>
       </c>
       <c r="D21" s="1">
-        <v>20.149999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" si="0"/>
-        <v>4.3672456575682332</v>
+        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -12539,14 +14909,14 @@
         <v>0.8</v>
       </c>
       <c r="C22" s="1">
-        <v>19.27</v>
+        <v>79.47</v>
       </c>
       <c r="D22" s="1">
-        <v>20.149999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="0"/>
-        <v>4.3672456575682332</v>
+        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -12554,14 +14924,14 @@
         <v>0.9</v>
       </c>
       <c r="C23" s="1">
-        <v>19.27</v>
+        <v>79.47</v>
       </c>
       <c r="D23" s="1">
-        <v>20.149999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="E23" s="14">
         <f t="shared" si="0"/>
-        <v>4.3672456575682332</v>
+        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -12569,14 +14939,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>19.27</v>
+        <v>79.47</v>
       </c>
       <c r="D24" s="1">
-        <v>20.149999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="E24" s="14">
         <f t="shared" si="0"/>
-        <v>4.3672456575682332</v>
+        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">

--- a/Сравнение эффективности алгоритмов.xlsx
+++ b/Сравнение эффективности алгоритмов.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79535\Desktop\Диплом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C64EC7-BC0D-46FE-A563-DE05E92FF347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1A3301-9E47-476B-9656-6B08E1FEA5FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{211160BF-2A63-4B5C-BAA6-6A02063159D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{211160BF-2A63-4B5C-BAA6-6A02063159D2}"/>
   </bookViews>
   <sheets>
     <sheet name="% занятых серверов" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -165,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -206,6 +214,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,10 +992,10 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,10 +1068,10 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,6 +1117,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>имя сервера</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1153,6 +1229,78 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Заполненность </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>hdd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1486,19 +1634,19 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,19 +1714,19 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1624,6 +1772,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>имя сервера</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1676,6 +1879,78 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Заполненность </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>hdd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2010,10 +2285,10 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,10 +2361,10 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,6 +2410,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>имя сервера</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2187,6 +2517,78 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Заполненность </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>hdd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5815,13 +6217,13 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5897,13 +6299,13 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6477,10 +6879,10 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6553,10 +6955,10 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6602,6 +7004,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>имя сервера</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6653,6 +7115,78 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Заполненность </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>hdd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7012,13 +7546,13 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7094,13 +7628,13 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7146,6 +7680,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>имя сервера</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7198,6 +7792,78 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Заполненность </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>hdd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13610,8 +14276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F72358-961F-4AC2-9383-C4E947969187}">
   <dimension ref="C1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14351,8 +15017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB825C20-96F5-47BD-A2E4-C53225734F7A}">
   <dimension ref="B1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O7"/>
+    <sheetView tabSelected="1" topLeftCell="J20" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14433,190 +15099,195 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="20">
         <v>94</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="19">
+        <v>100</v>
+      </c>
+      <c r="E3" s="19">
         <v>99</v>
-      </c>
-      <c r="E3" s="1">
-        <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="20">
         <v>85</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="19">
+        <v>99</v>
+      </c>
+      <c r="J3" s="19">
         <v>93</v>
       </c>
-      <c r="J3" s="1">
-        <v>99</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="20">
         <v>100</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="22">
+        <v>100</v>
+      </c>
+      <c r="O3" s="19">
         <v>98</v>
-      </c>
-      <c r="O3" s="1">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="20">
         <v>87</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="19">
+        <v>100</v>
+      </c>
+      <c r="E4" s="19">
         <v>95</v>
-      </c>
-      <c r="E4" s="1">
-        <v>100</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="20">
         <v>51</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="19">
         <v>58</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="19">
         <v>58</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="21"/>
+      <c r="L4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="20">
         <v>50</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="22">
+        <v>38</v>
+      </c>
+      <c r="O4" s="19">
         <v>49</v>
-      </c>
-      <c r="O4" s="1">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="20">
         <v>84</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="19">
+        <v>60</v>
+      </c>
+      <c r="E5" s="19">
         <v>66</v>
-      </c>
-      <c r="E5" s="1">
-        <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="20">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="19">
+        <v>48</v>
+      </c>
+      <c r="J5" s="19">
         <v>66</v>
       </c>
-      <c r="J5" s="1">
-        <v>48</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="20">
         <v>22</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="22">
+        <v>33</v>
+      </c>
+      <c r="O5" s="19">
         <v>24</v>
-      </c>
-      <c r="O5" s="1">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="20">
         <v>61</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="19">
+        <v>95</v>
+      </c>
+      <c r="E6" s="19">
         <v>78</v>
-      </c>
-      <c r="E6" s="1">
-        <v>95</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="20">
         <v>46</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="19">
+        <v>81</v>
+      </c>
+      <c r="J6" s="19">
         <v>35</v>
       </c>
-      <c r="J6" s="1">
-        <v>81</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="21"/>
+      <c r="L6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="20">
         <v>14</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="22">
+        <v>18</v>
+      </c>
+      <c r="O6" s="19">
         <v>21</v>
-      </c>
-      <c r="O6" s="1">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="20">
         <v>61</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="19">
+        <v>28</v>
+      </c>
+      <c r="E7" s="19">
         <v>45</v>
-      </c>
-      <c r="E7" s="1">
-        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="20">
         <v>46</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="19">
+        <v>10</v>
+      </c>
+      <c r="J7" s="19">
         <v>56</v>
       </c>
-      <c r="J7" s="1">
-        <v>10</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="20">
         <v>15</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="22">
+        <v>11</v>
+      </c>
+      <c r="O7" s="19">
         <v>13</v>
-      </c>
-      <c r="O7" s="1">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Сравнение эффективности алгоритмов.xlsx
+++ b/Сравнение эффективности алгоритмов.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79535\Desktop\Диплом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1A3301-9E47-476B-9656-6B08E1FEA5FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2619E84-86D1-43AD-A45C-311EE197C7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{211160BF-2A63-4B5C-BAA6-6A02063159D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{211160BF-2A63-4B5C-BAA6-6A02063159D2}"/>
   </bookViews>
   <sheets>
     <sheet name="% занятых серверов" sheetId="1" r:id="rId1"/>
     <sheet name="% свободных серверов" sheetId="2" r:id="rId2"/>
-    <sheet name="% свободных серверов (увелич)" sheetId="3" r:id="rId3"/>
-    <sheet name="Сводная табл по работе алг-ов" sheetId="5" r:id="rId4"/>
-    <sheet name="Сравнение заполняемости" sheetId="6" r:id="rId5"/>
-    <sheet name="Настройка алгоритма генет." sheetId="4" r:id="rId6"/>
+    <sheet name="% свободных серверов(10серверов" sheetId="7" r:id="rId3"/>
+    <sheet name="% свободных серверов(5серверов" sheetId="3" r:id="rId4"/>
+    <sheet name="Сводная табл по работе алг-ов" sheetId="5" r:id="rId5"/>
+    <sheet name="Сравнение заполняемости" sheetId="6" r:id="rId6"/>
+    <sheet name="Настройка алгоритма генет." sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>Кол-во сервисов</t>
   </si>
@@ -106,6 +107,9 @@
   <si>
     <t>Использование Cpu, %</t>
   </si>
+  <si>
+    <t>Кол-во свободных серверов</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -169,11 +173,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -206,6 +374,14 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -215,14 +391,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -807,6 +994,2620 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость количества свободных серверов от количества размещаемых сервисов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Алгоритм имитации отжига</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'% свободных серверов(5серверов'!$J$3:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC30-4EB3-BC9F-AAD166D8DDA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1664134592"/>
+        <c:axId val="1664135008"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Генетический алгоритм</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'% свободных серверов(5серверов'!$F$3:$F$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>Основной</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'% свободных серверов(5серверов'!$D$3:$D$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>Основной</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-EC30-4EB3-BC9F-AAD166D8DDA7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Эвристический алгоритм</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'% свободных серверов(5серверов'!$F$3:$F$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>Основной</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'% свободных серверов(5серверов'!$G$3:$G$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>Основной</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-EC30-4EB3-BC9F-AAD166D8DDA7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1664134592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество сервисов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664135008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1664135008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>% свободных серверов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664134592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Запоненность </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HDD Windows </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>серверов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Алгоритм BFD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$B$3:$B$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>WIN_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WIN_2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WIN_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$C$3:$C$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F09-4C38-91FC-A08467ECB07D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Генетический алгоритм</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$B$3:$B$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>WIN_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WIN_2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WIN_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$D$3:$D$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F09-4C38-91FC-A08467ECB07D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Алгоритм имитации отжига</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$B$3:$B$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>WIN_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WIN_2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WIN_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$E$3:$E$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1F09-4C38-91FC-A08467ECB07D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1023405679"/>
+        <c:axId val="1023421071"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1023405679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>имя сервера</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023421071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1023421071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Заполненность </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hdd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023405679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Запоненность </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HDD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linux </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>серверов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Алгоритм BFD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$B$3:$B$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$B$6:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LIN_4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LIN_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$C$3:$C$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$C$6:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0300-457A-ACA5-925C35EA5E5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Генетический алгоритм</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$B$3:$B$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$B$6:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LIN_4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LIN_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$D$3:$D$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$D$6:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0300-457A-ACA5-925C35EA5E5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Алгоритм имитации отжига</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$B$3:$B$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$B$6:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LIN_4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LIN_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$E$3:$E$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$E$6:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0300-457A-ACA5-925C35EA5E5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1023405679"/>
+        <c:axId val="1023421071"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1023405679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>имя сервера</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023421071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1023421071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Заполненность </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>hdd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023405679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Запоненность </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ram Windows </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>серверов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Алгоритм BFD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$G$3:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>WIN_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WIN_2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WIN_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$H$3:$H$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAEC-444F-8432-D0E24959B3C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Генетический алгоритм</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$G$3:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>WIN_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WIN_2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WIN_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$I$3:$I$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$I$3:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAEC-444F-8432-D0E24959B3C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Алгоритм имитации отжига</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$G$3:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>WIN_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WIN_2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WIN_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$J$3:$J$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$J$3:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BAEC-444F-8432-D0E24959B3C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1202476959"/>
+        <c:axId val="1202480703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1202476959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>имя сервера</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202480703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1202480703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Заполненность </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>hdd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202476959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
               <a:t>Запоненность </a:t>
             </a:r>
             <a:r>
@@ -1431,7 +4232,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2081,7 +4882,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2719,7 +5520,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3810,7 +6611,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'% свободных серверов (увелич)'!$F$3:$F$13</c:f>
+              <c:f>'% свободных серверов(10серверов'!$F$3:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3852,7 +6653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'% свободных серверов (увелич)'!$D$3:$D$13</c:f>
+              <c:f>'% свободных серверов(10серверов'!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3860,34 +6661,34 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3895,7 +6696,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2BE4-427F-8269-84E1161DBC98}"/>
+              <c16:uniqueId val="{00000000-29F5-4F76-8648-25119AA29D8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3919,7 +6720,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'% свободных серверов (увелич)'!$F$3:$F$13</c:f>
+              <c:f>'% свободных серверов(10серверов'!$F$3:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3961,7 +6762,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'% свободных серверов (увелич)'!$G$3:$G$13</c:f>
+              <c:f>'% свободных серверов(10серверов'!$G$3:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4004,7 +6805,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2BE4-427F-8269-84E1161DBC98}"/>
+              <c16:uniqueId val="{00000001-29F5-4F76-8648-25119AA29D8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4019,7 +6820,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'% свободных серверов (увелич)'!$J$3:$J$13</c:f>
+              <c:f>'% свободных серверов(10серверов'!$J$3:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4062,7 +6863,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BAB8-4993-9D33-179841B01DD0}"/>
+              <c16:uniqueId val="{00000002-29F5-4F76-8648-25119AA29D8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4370,7 +7171,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'% свободных серверов (увелич)'!$F$3:$F$13</c:f>
+              <c:f>'% свободных серверов(10серверов'!$F$3:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4412,7 +7213,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'% свободных серверов (увелич)'!$G$3:$G$13</c:f>
+              <c:f>'% свободных серверов(10серверов'!$G$3:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4455,7 +7256,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9172-4068-B5DA-64F574A827D5}"/>
+              <c16:uniqueId val="{00000000-482D-44DD-8DBA-A4C7CB4BABB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4511,7 +7312,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'% свободных серверов (увелич)'!$F$3:$F$13</c15:sqref>
+                          <c15:sqref>'% свободных серверов(10серверов'!$F$3:$F$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4559,7 +7360,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'% свободных серверов (увелич)'!$D$3:$D$13</c15:sqref>
+                          <c15:sqref>'% свободных серверов(10серверов'!$D$3:$D$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4570,34 +7371,34 @@
                         <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="7">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="8">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="4">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
                       <c:pt idx="9">
-                        <c:v>0</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4605,7 +7406,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-9172-4068-B5DA-64F574A827D5}"/>
+                    <c16:uniqueId val="{00000001-482D-44DD-8DBA-A4C7CB4BABB0}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -4926,7 +7727,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'% свободных серверов (увелич)'!$F$3:$F$13</c:f>
+              <c:f>'% свободных серверов(10серверов'!$F$3:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4968,7 +7769,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'% свободных серверов (увелич)'!$D$3:$D$13</c:f>
+              <c:f>'% свободных серверов(10серверов'!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4976,34 +7777,34 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5011,7 +7812,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C8F-475F-BD06-89765E4776A8}"/>
+              <c16:uniqueId val="{00000000-5BFA-490B-8CF7-B6ADAF0BAC95}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5067,7 +7868,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'% свободных серверов (увелич)'!$F$3:$F$13</c15:sqref>
+                          <c15:sqref>'% свободных серверов(10серверов'!$F$3:$F$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5115,7 +7916,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'% свободных серверов (увелич)'!$G$3:$G$13</c15:sqref>
+                          <c15:sqref>'% свободных серверов(10серверов'!$G$3:$G$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5161,7 +7962,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-7C8F-475F-BD06-89765E4776A8}"/>
+                    <c16:uniqueId val="{00000001-5BFA-490B-8CF7-B6ADAF0BAC95}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -5453,7 +8254,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'% свободных серверов (увелич)'!$J$3:$J$13</c:f>
+              <c:f>'% свободных серверов(10серверов'!$J$3:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5496,7 +8297,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC30-4EB3-BC9F-AAD166D8DDA7}"/>
+              <c16:uniqueId val="{00000000-92C0-4C60-8889-48AC3FA55820}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5552,7 +8353,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'% свободных серверов (увелич)'!$F$3:$F$13</c15:sqref>
+                          <c15:sqref>'% свободных серверов(10серверов'!$F$3:$F$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5600,7 +8401,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'% свободных серверов (увелич)'!$D$3:$D$13</c15:sqref>
+                          <c15:sqref>'% свободных серверов(10серверов'!$D$3:$D$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5611,34 +8412,34 @@
                         <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="7">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="8">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="4">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
                       <c:pt idx="9">
-                        <c:v>0</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5646,7 +8447,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-EC30-4EB3-BC9F-AAD166D8DDA7}"/>
+                    <c16:uniqueId val="{00000001-92C0-4C60-8889-48AC3FA55820}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -5672,10 +8473,10 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'% свободных серверов (увелич)'!$F$3:$F$13</c15:sqref>
+                          <c15:sqref>'% свободных серверов(10серверов'!$F$3:$F$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5720,10 +8521,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'% свободных серверов (увелич)'!$G$3:$G$13</c15:sqref>
+                          <c15:sqref>'% свободных серверов(10серверов'!$G$3:$G$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5769,7 +8570,7 @@
                 <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-EC30-4EB3-BC9F-AAD166D8DDA7}"/>
+                    <c16:uniqueId val="{00000002-92C0-4C60-8889-48AC3FA55820}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -6023,15 +8824,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Запоненность </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>HDD Windows </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>серверов</a:t>
+              <a:t>Зависимость количества свободных серверов от количества размещаемых сервисов</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6044,26 +8837,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6072,18 +8845,119 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Сравнение заполняемости'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+            <c:v>Генетический алгоритм</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'% свободных серверов(5серверов'!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Алгоритм BFD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'% свободных серверов(5серверов'!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2BE4-427F-8269-84E1161DBC98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Эвристический алгоритм</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
@@ -6098,50 +8972,85 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$B$3:$B$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$B$3:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>'% свободных серверов(5серверов'!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>WIN_1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>WIN_2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>WIN_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$C$3:$C$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$C$3:$C$5</c:f>
+              <c:f>'% свободных серверов(5серверов'!$G$3:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84</c:v>
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6149,89 +9058,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F09-4C38-91FC-A08467ECB07D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Сравнение заполняемости'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Генетический алгоритм</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$B$3:$B$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$B$3:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>WIN_1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>WIN_2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WIN_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$D$3:$D$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$D$3:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1F09-4C38-91FC-A08467ECB07D}"/>
+              <c16:uniqueId val="{00000006-2BE4-427F-8269-84E1161DBC98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6239,73 +9066,49 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Сравнение заполняемости'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Алгоритм имитации отжига</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Алгоритм имитации отжига</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$B$3:$B$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$B$3:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>WIN_1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>WIN_2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WIN_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$E$3:$E$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$E$3:$E$5</c:f>
+              <c:f>'% свободных серверов(5серверов'!$J$3:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6313,7 +9116,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1F09-4C38-91FC-A08467ECB07D}"/>
+              <c16:uniqueId val="{00000001-BAB8-4993-9D33-179841B01DD0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6341,11 +9144,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1023405679"/>
-        <c:axId val="1023421071"/>
+        <c:axId val="1664134592"/>
+        <c:axId val="1664135008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1023405679"/>
+        <c:axId val="1664134592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6372,7 +9175,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>имя сервера</a:t>
+                  <a:t>Количество сервисов</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6385,26 +9188,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6443,7 +9226,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1023421071"/>
+        <c:crossAx val="1664135008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6451,7 +9234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1023421071"/>
+        <c:axId val="1664135008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6479,15 +9262,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Заполненность </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>hdd</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>, %</a:t>
+                  <a:t>% свободных серверов</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6500,26 +9275,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6552,7 +9307,527 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1023405679"/>
+        <c:crossAx val="1664134592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость количества свободных серверов от количества размещаемых сервисов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Эвристический алгоритм</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'% свободных серверов(5серверов'!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'% свободных серверов(5серверов'!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9172-4068-B5DA-64F574A827D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1664134592"/>
+        <c:axId val="1664135008"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Генетический алгоритм</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'% свободных серверов(5серверов'!$F$3:$F$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>Основной</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'% свободных серверов(5серверов'!$D$3:$D$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>Основной</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-9172-4068-B5DA-64F574A827D5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1664134592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество сервисов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664135008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1664135008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>% свободных серверов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664134592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6609,696 +9884,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Запоненность </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>HDD</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Linux </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>серверов</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Сравнение заполняемости'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Алгоритм BFD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$B$3:$B$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$B$6:$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LIN_4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LIN_5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$C$3:$C$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$C$6:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0300-457A-ACA5-925C35EA5E5B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Сравнение заполняемости'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Генетический алгоритм</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$B$3:$B$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$B$6:$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LIN_4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LIN_5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$D$3:$D$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$D$6:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0300-457A-ACA5-925C35EA5E5B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Сравнение заполняемости'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Алгоритм имитации отжига</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$B$3:$B$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$B$6:$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LIN_4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LIN_5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$E$3:$E$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$E$6:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0300-457A-ACA5-925C35EA5E5B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="1023405679"/>
-        <c:axId val="1023421071"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1023405679"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>имя сервера</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU" sz="900">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1023421071"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1023421071"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Заполненность </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>hdd</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>, %</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU" sz="900">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1023405679"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -7352,15 +9940,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Запоненность </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Ram Windows </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>серверов</a:t>
+              <a:t>Зависимость количества свободных серверов от количества размещаемых сервисов</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7373,26 +9953,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7401,23 +9961,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Сравнение заполняемости'!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Алгоритм BFD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Генетический алгоритм</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7427,50 +9979,85 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$G$3:$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>'% свободных серверов(5серверов'!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>WIN_1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>WIN_2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>WIN_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$H$3:$H$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$H$3:$H$5</c:f>
+              <c:f>'% свободных серверов(5серверов'!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79</c:v>
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7478,171 +10065,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BAEC-444F-8432-D0E24959B3C0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Сравнение заполняемости'!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Генетический алгоритм</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$G$3:$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>WIN_1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>WIN_2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WIN_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$I$3:$I$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$I$3:$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BAEC-444F-8432-D0E24959B3C0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Сравнение заполняемости'!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Алгоритм имитации отжига</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$G$3:$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>WIN_1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>WIN_2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WIN_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$J$3:$J$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$J$3:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BAEC-444F-8432-D0E24959B3C0}"/>
+              <c16:uniqueId val="{00000000-7C8F-475F-BD06-89765E4776A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7670,11 +10093,138 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1202476959"/>
-        <c:axId val="1202480703"/>
+        <c:axId val="1664134592"/>
+        <c:axId val="1664135008"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Эвристический алгоритм</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'% свободных серверов(5серверов'!$F$3:$F$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>Основной</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'% свободных серверов(5серверов'!$G$3:$G$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>Основной</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7C8F-475F-BD06-89765E4776A8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1202476959"/>
+        <c:axId val="1664134592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7700,14 +10250,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>имя сервера</a:t>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество сервисов</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="900">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7719,26 +10264,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -7777,7 +10302,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1202480703"/>
+        <c:crossAx val="1664135008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7785,7 +10310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1202480703"/>
+        <c:axId val="1664135008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7812,26 +10337,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Заполненность </a:t>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>% свободных серверов</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>hdd</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>, %</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU" sz="900">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7843,26 +10351,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -7895,7 +10383,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1202476959"/>
+        <c:crossAx val="1664134592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7922,60 +10410,12 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -13300,6 +15740,163 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344B1A15-3125-406E-A26C-54F8629CECF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B8FA8D-846D-4543-9224-EE639874342B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138114</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED7B29-68C0-4B62-842E-315B46440ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{656B9A5C-C379-4C4B-84AD-EA5C6FEBF1C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41B97FD-AC7C-4040-837F-453CD80C153B}"/>
             </a:ext>
           </a:extLst>
@@ -13437,7 +16034,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13666,7 +16263,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14007,7 +16604,7 @@
   <dimension ref="C1:G8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14019,14 +16616,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -14153,14 +16750,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="D1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
@@ -14273,18 +16870,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F72358-961F-4AC2-9383-C4E947969187}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C230857-32B3-44AC-BD72-0940337CF7F7}">
   <dimension ref="C1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -14292,34 +16889,40 @@
     <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="I1" s="17" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -14327,20 +16930,24 @@
       </c>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="1">
+      <c r="C3" s="28">
         <v>0</v>
       </c>
       <c r="D3" s="1">
         <f>100 - 0</f>
         <v>100</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E3" s="29">
+        <v>10</v>
+      </c>
+      <c r="F3" s="28">
         <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H3" s="34"/>
+      <c r="I3" s="24">
         <v>0</v>
       </c>
       <c r="J3" s="1">
@@ -14348,19 +16955,23 @@
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
+      <c r="C4" s="28">
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>60</v>
-      </c>
-      <c r="F4" s="1">
+        <v>80</v>
+      </c>
+      <c r="E4" s="29">
+        <v>8</v>
+      </c>
+      <c r="F4" s="28">
         <v>5</v>
       </c>
       <c r="G4" s="1">
         <v>60</v>
       </c>
-      <c r="I4" s="1">
+      <c r="H4" s="34"/>
+      <c r="I4" s="24">
         <v>5</v>
       </c>
       <c r="J4" s="1">
@@ -14368,19 +16979,23 @@
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
+      <c r="C5" s="28">
         <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>60</v>
-      </c>
-      <c r="F5" s="1">
+        <v>80</v>
+      </c>
+      <c r="E5" s="29">
+        <v>8</v>
+      </c>
+      <c r="F5" s="28">
         <v>10</v>
       </c>
       <c r="G5" s="1">
         <v>40</v>
       </c>
-      <c r="I5" s="1">
+      <c r="H5" s="34"/>
+      <c r="I5" s="24">
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -14388,19 +17003,23 @@
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
+      <c r="C6" s="28">
         <v>15</v>
       </c>
       <c r="D6" s="1">
-        <v>60</v>
-      </c>
-      <c r="F6" s="1">
+        <v>70</v>
+      </c>
+      <c r="E6" s="29">
+        <v>7</v>
+      </c>
+      <c r="F6" s="28">
         <v>15</v>
       </c>
       <c r="G6" s="1">
         <v>20</v>
       </c>
-      <c r="I6" s="1">
+      <c r="H6" s="34"/>
+      <c r="I6" s="24">
         <v>15</v>
       </c>
       <c r="J6" s="1">
@@ -14408,19 +17027,23 @@
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+      <c r="C7" s="28">
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>60</v>
-      </c>
-      <c r="F7" s="1">
+        <v>70</v>
+      </c>
+      <c r="E7" s="29">
+        <v>7</v>
+      </c>
+      <c r="F7" s="28">
         <v>20</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="H7" s="34"/>
+      <c r="I7" s="24">
         <v>20</v>
       </c>
       <c r="J7" s="1">
@@ -14428,19 +17051,23 @@
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
+      <c r="C8" s="28">
         <v>25</v>
       </c>
       <c r="D8" s="1">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1">
+        <v>70</v>
+      </c>
+      <c r="E8" s="29">
+        <v>7</v>
+      </c>
+      <c r="F8" s="28">
         <v>25</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="H8" s="34"/>
+      <c r="I8" s="24">
         <v>25</v>
       </c>
       <c r="J8" s="1">
@@ -14448,19 +17075,23 @@
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+      <c r="C9" s="28">
         <v>30</v>
       </c>
       <c r="D9" s="1">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1">
+        <v>60</v>
+      </c>
+      <c r="E9" s="29">
+        <v>6</v>
+      </c>
+      <c r="F9" s="28">
         <v>30</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="H9" s="34"/>
+      <c r="I9" s="24">
         <v>30</v>
       </c>
       <c r="J9" s="1">
@@ -14468,19 +17099,23 @@
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
+      <c r="C10" s="28">
         <v>35</v>
       </c>
       <c r="D10" s="1">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+      <c r="E10" s="29">
+        <v>6</v>
+      </c>
+      <c r="F10" s="28">
         <v>35</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="H10" s="34"/>
+      <c r="I10" s="24">
         <v>35</v>
       </c>
       <c r="J10" s="1">
@@ -14488,19 +17123,23 @@
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+      <c r="C11" s="28">
         <v>40</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
+        <v>60</v>
+      </c>
+      <c r="E11" s="29">
+        <v>6</v>
+      </c>
+      <c r="F11" s="28">
         <v>40</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
+      <c r="H11" s="34"/>
+      <c r="I11" s="24">
         <v>40</v>
       </c>
       <c r="J11" s="1">
@@ -14508,46 +17147,54 @@
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
+      <c r="C12" s="28">
         <v>45</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="E12" s="29">
+        <v>5</v>
+      </c>
+      <c r="F12" s="28">
         <v>45</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="H12" s="34"/>
+      <c r="I12" s="24">
         <v>45</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
+    <row r="13" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="30">
         <v>50</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="31">
+        <v>50</v>
+      </c>
+      <c r="E13" s="32">
+        <v>5</v>
+      </c>
+      <c r="F13" s="30">
+        <v>50</v>
+      </c>
+      <c r="G13" s="31">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
-        <v>50</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="H13" s="35"/>
+      <c r="I13" s="24">
         <v>50</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
@@ -14556,12 +17203,12 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
@@ -14691,9 +17338,9 @@
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
@@ -14823,6 +17470,556 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F72358-961F-4AC2-9383-C4E947969187}">
+  <dimension ref="C1:K53"/>
+  <sheetViews>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="F1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="I1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <f>100 - 0</f>
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>60</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>40</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14176A4F-4656-4A55-B791-8C3BE41BDB86}">
   <dimension ref="B3:M7"/>
   <sheetViews>
@@ -14839,19 +18036,19 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -15013,11 +18210,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB825C20-96F5-47BD-A2E4-C53225734F7A}">
   <dimension ref="B1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J20" workbookViewId="0">
+    <sheetView topLeftCell="J20" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -15039,23 +18236,23 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="2:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -15099,38 +18296,38 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>94</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="16">
         <v>100</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="16">
         <v>99</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="17">
         <v>85</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="16">
         <v>99</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="16">
         <v>93</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="20" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="17">
         <v>100</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="19">
         <v>100</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="16">
         <v>98</v>
       </c>
     </row>
@@ -15138,38 +18335,38 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>87</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="16">
         <v>100</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <v>95</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="17">
         <v>51</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="16">
         <v>58</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="16">
         <v>58</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="20" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <v>50</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="19">
         <v>38</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="16">
         <v>49</v>
       </c>
     </row>
@@ -15177,38 +18374,38 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>84</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>60</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <v>66</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <v>79</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="16">
         <v>48</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="16">
         <v>66</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="20" t="s">
+      <c r="K5" s="18"/>
+      <c r="L5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="17">
         <v>22</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="19">
         <v>33</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="16">
         <v>24</v>
       </c>
     </row>
@@ -15216,38 +18413,38 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>61</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="16">
         <v>95</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>46</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="16">
         <v>81</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="16">
         <v>35</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="20" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="17">
         <v>14</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="19">
         <v>18</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="16">
         <v>21</v>
       </c>
     </row>
@@ -15255,38 +18452,38 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>61</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <v>28</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <v>46</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="16">
         <v>10</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="16">
         <v>56</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="20" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="17">
         <v>15</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="19">
         <v>11</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="16">
         <v>13</v>
       </c>
     </row>
@@ -15302,7 +18499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5C7700-9C78-47DF-8A2D-36AB2E00CFDE}">
   <dimension ref="B2:F30"/>
   <sheetViews>

--- a/Сравнение эффективности алгоритмов.xlsx
+++ b/Сравнение эффективности алгоритмов.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79535\Desktop\Диплом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2619E84-86D1-43AD-A45C-311EE197C7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB774411-2EDA-446C-9C94-369D77D76BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{211160BF-2A63-4B5C-BAA6-6A02063159D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{211160BF-2A63-4B5C-BAA6-6A02063159D2}"/>
   </bookViews>
   <sheets>
     <sheet name="% занятых серверов" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
   <si>
     <t>Кол-во сервисов</t>
   </si>
@@ -81,9 +81,6 @@
     <t xml:space="preserve">Имя сервера </t>
   </si>
   <si>
-    <t>Погрешность, %</t>
-  </si>
-  <si>
     <t>Вероятность мутации</t>
   </si>
   <si>
@@ -96,12 +93,6 @@
     <t>Максимальная заполненность RAM, %</t>
   </si>
   <si>
-    <t>Реальное значение функции приспособленности</t>
-  </si>
-  <si>
-    <t>Функция приспособленности оптимального решения</t>
-  </si>
-  <si>
     <t>Максимальная заполненность CPU, %</t>
   </si>
   <si>
@@ -109,6 +100,9 @@
   </si>
   <si>
     <t>Кол-во свободных серверов</t>
+  </si>
+  <si>
+    <t>Значение функции приспособленности</t>
   </si>
 </sst>
 </file>
@@ -141,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -179,51 +173,6 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -307,6 +256,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thick">
         <color auto="1"/>
@@ -314,25 +287,27 @@
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -341,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -372,7 +347,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -382,34 +356,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4335,9 +4311,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Сравнение заполняемости'!$G$3:$G$7</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$G$3:$G$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>WIN_1</c:v>
                 </c:pt>
@@ -4346,36 +4329,31 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>WIN_3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LIN_4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LIN_5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Сравнение заполняемости'!$M$3:$M$7</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$M$3:$M$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$M$3:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4407,9 +4385,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Сравнение заполняемости'!$G$3:$G$7</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$G$3:$G$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>WIN_1</c:v>
                 </c:pt>
@@ -4418,36 +4403,31 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>WIN_3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LIN_4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LIN_5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Сравнение заполняемости'!$N$3:$N$7</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$N$3:$N$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$N$3:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4487,9 +4467,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Сравнение заполняемости'!$G$3:$G$7</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$G$3:$G$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>WIN_1</c:v>
                 </c:pt>
@@ -4498,22 +4485,23 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>WIN_3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LIN_4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LIN_5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Сравнение заполняемости'!$O$3:$O$7</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$O$3:$O$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$O$3:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>98</c:v>
                 </c:pt>
@@ -4522,12 +4510,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5018,7 +5000,7 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
@@ -5086,10 +5068,10 @@
                 <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5660,40 +5642,40 @@
             <c:numRef>
               <c:f>'Настройка алгоритма генет.'!$E$14:$E$24</c:f>
               <c:numCache>
-                <c:formatCode>0,00</c:formatCode>
+                <c:formatCode>Основной</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>115.05144771476429</c:v>
+                  <c:v>-12.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.24144532184733</c:v>
+                  <c:v>59.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.587939698492466</c:v>
+                  <c:v>68.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.917444364680545</c:v>
+                  <c:v>79.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.917444364680545</c:v>
+                  <c:v>79.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.917444364680545</c:v>
+                  <c:v>79.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.917444364680545</c:v>
+                  <c:v>79.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.917444364680545</c:v>
+                  <c:v>79.47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.917444364680545</c:v>
+                  <c:v>79.47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.917444364680545</c:v>
+                  <c:v>79.47</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.917444364680545</c:v>
+                  <c:v>79.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5866,13 +5848,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>погрешность,</a:t>
+                  <a:t>Значение функции приспособленности</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> %</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5905,7 +5882,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0,00" sourceLinked="1"/>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5938,7 +5915,7 @@
         </c:txPr>
         <c:crossAx val="751395824"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:gradFill>
@@ -6704,7 +6681,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Эвристический алгоритм</c:v>
+            <c:v>Алгоритм BFD</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
@@ -6770,28 +6747,28 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -6828,34 +6805,34 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7221,28 +7198,28 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -7927,28 +7904,28 @@
                         <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="6">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
                         <c:v>20</c:v>
                       </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
                       <c:pt idx="8">
-                        <c:v>0</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>0</c:v>
@@ -8262,34 +8239,34 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8473,7 +8450,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'% свободных серверов(10серверов'!$F$3:$F$13</c15:sqref>
@@ -8521,7 +8498,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'% свободных серверов(10серверов'!$G$3:$G$13</c15:sqref>
@@ -8535,28 +8512,28 @@
                         <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="6">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
                         <c:v>20</c:v>
                       </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
                       <c:pt idx="8">
-                        <c:v>0</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>0</c:v>
@@ -8957,7 +8934,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Эвристический алгоритм</c:v>
+            <c:v>Алгоритм BFD</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
@@ -15762,16 +15739,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>274545</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>7284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33339</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>284070</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145398</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15800,16 +15777,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>442072</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>138114</xdr:rowOff>
+      <xdr:rowOff>115702</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15838,16 +15815,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>61914</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>442072</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>173973</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16616,14 +16593,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -16750,14 +16727,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
@@ -16873,8 +16850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C230857-32B3-44AC-BD72-0940337CF7F7}">
   <dimension ref="C1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16887,328 +16864,391 @@
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="25" t="s">
+    <row r="1" spans="3:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="23" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="21"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="28" t="s">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="24" t="s">
+      <c r="H2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="K2" s="21" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="28">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="20">
         <v>0</v>
       </c>
       <c r="D3" s="1">
         <f>100 - 0</f>
         <v>100</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="21">
         <v>10</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="20">
         <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="24">
+      <c r="H3" s="21">
+        <v>10</v>
+      </c>
+      <c r="I3" s="19">
         <v>0</v>
       </c>
       <c r="J3" s="1">
+        <f>100 - 0</f>
         <v>100</v>
       </c>
+      <c r="K3" s="21">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="28">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="20">
         <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>80</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="21">
         <v>8</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="20">
         <v>5</v>
       </c>
       <c r="G4" s="1">
-        <v>60</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="24">
+        <v>70</v>
+      </c>
+      <c r="H4" s="21">
+        <v>7</v>
+      </c>
+      <c r="I4" s="19">
         <v>5</v>
       </c>
       <c r="J4" s="1">
-        <v>60</v>
+        <v>80</v>
+      </c>
+      <c r="K4" s="21">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="28">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="20">
         <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>80</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="21">
         <v>8</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="20">
         <v>10</v>
       </c>
       <c r="G5" s="1">
-        <v>40</v>
-      </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="24">
+        <v>60</v>
+      </c>
+      <c r="H5" s="21">
+        <v>6</v>
+      </c>
+      <c r="I5" s="19">
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <v>60</v>
+        <v>80</v>
+      </c>
+      <c r="K5" s="21">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="28">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="20">
         <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>70</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="21">
         <v>7</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="20">
         <v>15</v>
       </c>
       <c r="G6" s="1">
-        <v>20</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="24">
+        <v>50</v>
+      </c>
+      <c r="H6" s="21">
+        <v>5</v>
+      </c>
+      <c r="I6" s="19">
         <v>15</v>
       </c>
       <c r="J6" s="1">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="K6" s="21">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="28">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="20">
         <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>70</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="21">
         <v>7</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="20">
         <v>20</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="24">
+        <v>50</v>
+      </c>
+      <c r="H7" s="21">
+        <v>5</v>
+      </c>
+      <c r="I7" s="19">
         <v>20</v>
       </c>
       <c r="J7" s="1">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="K7" s="21">
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="28">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="20">
         <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>70</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="21">
         <v>7</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="20">
         <v>25</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="24">
+        <v>40</v>
+      </c>
+      <c r="H8" s="21">
+        <v>4</v>
+      </c>
+      <c r="I8" s="19">
         <v>25</v>
       </c>
       <c r="J8" s="1">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="K8" s="21">
+        <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="28">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="20">
         <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>60</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="21">
         <v>6</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="20">
         <v>30</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="24">
+        <v>40</v>
+      </c>
+      <c r="H9" s="21">
+        <v>4</v>
+      </c>
+      <c r="I9" s="19">
         <v>30</v>
       </c>
       <c r="J9" s="1">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="K9" s="21">
+        <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="28">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="20">
         <v>35</v>
       </c>
       <c r="D10" s="1">
         <v>60</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="21">
         <v>6</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="20">
         <v>35</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="24">
+        <v>20</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2</v>
+      </c>
+      <c r="I10" s="19">
         <v>35</v>
       </c>
       <c r="J10" s="1">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="K10" s="21">
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="28">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="20">
         <v>40</v>
       </c>
       <c r="D11" s="1">
         <v>60</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="21">
         <v>6</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="20">
         <v>40</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="24">
+        <v>20</v>
+      </c>
+      <c r="H11" s="21">
+        <v>2</v>
+      </c>
+      <c r="I11" s="19">
         <v>40</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="K11" s="21">
+        <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="28">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="20">
         <v>45</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="21">
         <v>5</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="20">
         <v>45</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="24">
+      <c r="H12" s="21">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
         <v>45</v>
       </c>
       <c r="J12" s="1">
+        <v>50</v>
+      </c>
+      <c r="K12" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="22">
+        <v>50</v>
+      </c>
+      <c r="D13" s="23">
+        <v>50</v>
+      </c>
+      <c r="E13" s="24">
+        <v>5</v>
+      </c>
+      <c r="F13" s="22">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
         <v>0</v>
       </c>
+      <c r="H13" s="24">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>50</v>
+      </c>
+      <c r="J13" s="23">
+        <v>50</v>
+      </c>
+      <c r="K13" s="24">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="30">
-        <v>50</v>
-      </c>
-      <c r="D13" s="31">
-        <v>50</v>
-      </c>
-      <c r="E13" s="32">
-        <v>5</v>
-      </c>
-      <c r="F13" s="30">
-        <v>50</v>
-      </c>
-      <c r="G13" s="31">
-        <v>0</v>
-      </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="24">
-        <v>50</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
@@ -17338,9 +17378,9 @@
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
@@ -17455,13 +17495,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -17473,8 +17513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F72358-961F-4AC2-9383-C4E947969187}">
   <dimension ref="C1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="I40" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17490,18 +17530,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="F1" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="21"/>
-      <c r="I1" s="21" t="s">
+      <c r="D1" s="26"/>
+      <c r="F1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="I1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="21"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
@@ -17753,12 +17793,12 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
@@ -17888,9 +17928,9 @@
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
@@ -18021,10 +18061,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14176A4F-4656-4A55-B791-8C3BE41BDB86}">
-  <dimension ref="B3:M7"/>
+  <dimension ref="B3:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18034,23 +18074,23 @@
     <col min="4" max="13" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -18088,9 +18128,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6">
         <v>100</v>
@@ -18126,7 +18166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -18164,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -18201,10 +18241,218 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6">
+        <v>25</v>
+      </c>
+      <c r="I10" s="6">
+        <v>30</v>
+      </c>
+      <c r="J10" s="6">
+        <v>35</v>
+      </c>
+      <c r="K10" s="6">
+        <v>40</v>
+      </c>
+      <c r="L10" s="6">
+        <v>45</v>
+      </c>
+      <c r="M10" s="6">
+        <v>50</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>100</v>
+      </c>
+      <c r="D11" s="6">
+        <v>70</v>
+      </c>
+      <c r="E11" s="6">
+        <v>60</v>
+      </c>
+      <c r="F11" s="6">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6">
+        <v>50</v>
+      </c>
+      <c r="H11" s="6">
+        <v>40</v>
+      </c>
+      <c r="I11" s="6">
+        <v>40</v>
+      </c>
+      <c r="J11" s="6">
+        <v>20</v>
+      </c>
+      <c r="K11" s="6">
+        <v>20</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6">
+        <v>80</v>
+      </c>
+      <c r="E12" s="6">
+        <v>80</v>
+      </c>
+      <c r="F12" s="7">
+        <v>70</v>
+      </c>
+      <c r="G12" s="7">
+        <v>70</v>
+      </c>
+      <c r="H12" s="7">
+        <v>70</v>
+      </c>
+      <c r="I12" s="7">
+        <v>60</v>
+      </c>
+      <c r="J12" s="7">
+        <v>60</v>
+      </c>
+      <c r="K12" s="7">
+        <v>60</v>
+      </c>
+      <c r="L12" s="7">
+        <v>50</v>
+      </c>
+      <c r="M12" s="7">
+        <v>50</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
+        <v>100</v>
+      </c>
+      <c r="D13" s="6">
+        <v>80</v>
+      </c>
+      <c r="E13" s="6">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7">
+        <v>60</v>
+      </c>
+      <c r="I13" s="7">
+        <v>60</v>
+      </c>
+      <c r="J13" s="7">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7">
+        <v>60</v>
+      </c>
+      <c r="L13" s="7">
+        <v>50</v>
+      </c>
+      <c r="M13" s="7">
+        <v>50</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18212,10 +18460,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB825C20-96F5-47BD-A2E4-C53225734F7A}">
-  <dimension ref="B1:O7"/>
+  <dimension ref="B1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="J20" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18234,27 +18482,27 @@
     <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="M1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="2:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
@@ -18292,199 +18540,214 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>94</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>100</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>99</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>85</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>99</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>93</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="17" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="1">
         <v>100</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="18">
         <v>100</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>98</v>
       </c>
+      <c r="Q3" s="16">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>87</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>100</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>95</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>51</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>58</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>58</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="1">
+        <v>35</v>
+      </c>
+      <c r="N4" s="18">
         <v>50</v>
       </c>
-      <c r="N4" s="19">
-        <v>38</v>
-      </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <v>49</v>
       </c>
+      <c r="Q4" s="16">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>84</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>60</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>66</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>79</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>48</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>66</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="17" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="1">
+        <v>29</v>
+      </c>
+      <c r="N5" s="18">
         <v>22</v>
       </c>
-      <c r="N5" s="19">
-        <v>33</v>
-      </c>
-      <c r="O5" s="16">
+      <c r="O5" s="15">
         <v>24</v>
       </c>
+      <c r="Q5" s="16">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>61</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>95</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>46</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>81</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>35</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="1">
+        <v>21</v>
+      </c>
+      <c r="N6" s="18">
         <v>14</v>
       </c>
-      <c r="N6" s="19">
-        <v>18</v>
-      </c>
-      <c r="O6" s="16">
+      <c r="O6" s="15">
         <v>21</v>
       </c>
+      <c r="Q6" s="16">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>61</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>28</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>46</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>10</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>56</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="17"/>
+      <c r="L7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="1">
         <v>15</v>
       </c>
-      <c r="N7" s="19">
-        <v>11</v>
-      </c>
-      <c r="O7" s="16">
+      <c r="N7" s="18">
+        <v>15</v>
+      </c>
+      <c r="O7" s="15">
         <v>13</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -18503,8 +18766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5C7700-9C78-47DF-8A2D-36AB2E00CFDE}">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18521,16 +18784,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -18619,11 +18882,11 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -18638,183 +18901,124 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="12" t="s">
         <v>16</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>0.05</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <v>-12.58</v>
-      </c>
-      <c r="D14" s="1">
-        <v>83.58</v>
-      </c>
-      <c r="E14" s="14">
-        <f>((D14-C14)/D14)*100</f>
-        <v>115.05144771476429</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>0.1</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
         <v>59.14</v>
-      </c>
-      <c r="D15" s="1">
-        <v>83.58</v>
-      </c>
-      <c r="E15" s="14">
-        <f t="shared" ref="E15:E24" si="0">((D15-C15)/D15)*100</f>
-        <v>29.24144532184733</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>0.2</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
         <v>68.88</v>
-      </c>
-      <c r="D16" s="1">
-        <v>83.58</v>
-      </c>
-      <c r="E16" s="14">
-        <f t="shared" si="0"/>
-        <v>17.587939698492466</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>0.3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
         <v>79.47</v>
-      </c>
-      <c r="D17" s="1">
-        <v>83.58</v>
-      </c>
-      <c r="E17" s="14">
-        <f t="shared" si="0"/>
-        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>0.4</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
         <v>79.47</v>
-      </c>
-      <c r="D18" s="1">
-        <v>83.58</v>
-      </c>
-      <c r="E18" s="14">
-        <f t="shared" si="0"/>
-        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>0.5</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
         <v>79.47</v>
-      </c>
-      <c r="D19" s="1">
-        <v>83.58</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" si="0"/>
-        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>0.6</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
         <v>79.47</v>
-      </c>
-      <c r="D20" s="1">
-        <v>83.58</v>
-      </c>
-      <c r="E20" s="14">
-        <f t="shared" si="0"/>
-        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>0.7</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
         <v>79.47</v>
-      </c>
-      <c r="D21" s="1">
-        <v>83.58</v>
-      </c>
-      <c r="E21" s="14">
-        <f t="shared" si="0"/>
-        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>0.8</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
         <v>79.47</v>
-      </c>
-      <c r="D22" s="1">
-        <v>83.58</v>
-      </c>
-      <c r="E22" s="14">
-        <f t="shared" si="0"/>
-        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>0.9</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
         <v>79.47</v>
-      </c>
-      <c r="D23" s="1">
-        <v>83.58</v>
-      </c>
-      <c r="E23" s="14">
-        <f t="shared" si="0"/>
-        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
         <v>79.47</v>
-      </c>
-      <c r="D24" s="1">
-        <v>83.58</v>
-      </c>
-      <c r="E24" s="14">
-        <f t="shared" si="0"/>
-        <v>4.917444364680545</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">

--- a/Сравнение эффективности алгоритмов.xlsx
+++ b/Сравнение эффективности алгоритмов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79535\Desktop\Диплом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB774411-2EDA-446C-9C94-369D77D76BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0103CBBF-AD15-4219-B7DE-78B2299FF998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{211160BF-2A63-4B5C-BAA6-6A02063159D2}"/>
   </bookViews>
@@ -7141,7 +7141,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Эвристический алгоритм</c:v>
+            <c:v>Алгоритм BFD</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -15742,13 +15742,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>274545</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>7284</xdr:rowOff>
+      <xdr:rowOff>7283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>284070</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>145398</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22410</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15778,15 +15778,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>442072</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>115702</xdr:rowOff>
+      <xdr:colOff>251572</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15816,15 +15816,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>442072</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>173973</xdr:rowOff>
+      <xdr:colOff>374837</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95532</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16850,8 +16850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C230857-32B3-44AC-BD72-0940337CF7F7}">
   <dimension ref="C1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Сравнение эффективности алгоритмов.xlsx
+++ b/Сравнение эффективности алгоритмов.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79535\Desktop\Диплом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0103CBBF-AD15-4219-B7DE-78B2299FF998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4994A85E-07E6-4F5F-B317-6AE5D199CFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{211160BF-2A63-4B5C-BAA6-6A02063159D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{211160BF-2A63-4B5C-BAA6-6A02063159D2}"/>
   </bookViews>
   <sheets>
     <sheet name="% занятых серверов" sheetId="1" r:id="rId1"/>
     <sheet name="% свободных серверов" sheetId="2" r:id="rId2"/>
     <sheet name="% свободных серверов(10серверов" sheetId="7" r:id="rId3"/>
     <sheet name="% свободных серверов(5серверов" sheetId="3" r:id="rId4"/>
-    <sheet name="Сводная табл по работе алг-ов" sheetId="5" r:id="rId5"/>
-    <sheet name="Сравнение заполняемости" sheetId="6" r:id="rId6"/>
-    <sheet name="Настройка алгоритма генет." sheetId="4" r:id="rId7"/>
+    <sheet name="Кривая при разной мутации" sheetId="8" r:id="rId5"/>
+    <sheet name="Сводная табл по работе алг-ов" sheetId="5" r:id="rId6"/>
+    <sheet name="Сравнение заполняемости" sheetId="6" r:id="rId7"/>
+    <sheet name="Настройка алгоритма генет." sheetId="4" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1006,6 +1010,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'% свободных серверов(5серверов'!$I$3:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'% свободных серверов(5серверов'!$J$3:$J$13</c:f>
@@ -1107,7 +1153,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'% свободных серверов(5серверов'!$F$3:$F$13</c15:sqref>
+                          <c15:sqref>'% свободных серверов(5серверов'!$I$3:$I$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1227,10 +1273,10 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'% свободных серверов(5серверов'!$F$3:$F$13</c15:sqref>
+                          <c15:sqref>'% свободных серверов(5серверов'!$I$3:$I$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1544,6 +1590,399 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Сервера</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Лист1!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E7B-4EA7-A7C5-5F1C61B73117}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="2018990880"/>
+        <c:axId val="2018991296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2018990880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>кол-во итераций</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2018991296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2018991296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>кол-во занятых серверов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2018990880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2206,7 +2645,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2872,7 +3311,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3198,665 +3637,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BAEC-444F-8432-D0E24959B3C0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="1202476959"/>
-        <c:axId val="1202480703"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1202476959"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>имя сервера</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU" sz="900">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1202480703"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1202480703"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Заполненность </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>hdd</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>, %</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU" sz="900">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1202476959"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Запоненность </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Ram Linux </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>серверов</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Сравнение заполняемости'!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Алгоритм BFD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$G$6:$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LIN_4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LIN_5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$H$3:$H$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$H$6:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C770-4EB7-B5E9-488CC65BE86A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Сравнение заполняемости'!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Генетический алгоритм</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$G$6:$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LIN_4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LIN_5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$I$3:$I$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$I$6:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C770-4EB7-B5E9-488CC65BE86A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Сравнение заполняемости'!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Алгоритм имитации отжига</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$G$6:$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LIN_4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LIN_5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Сравнение заполняемости'!$J$3:$J$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Сравнение заполняемости'!$J$6:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>56</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C770-4EB7-B5E9-488CC65BE86A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4243,6 +4023,665 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
+              <a:t>Запоненность </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ram Linux </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>серверов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Алгоритм BFD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$G$6:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LIN_4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LIN_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$H$3:$H$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$H$6:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C770-4EB7-B5E9-488CC65BE86A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Генетический алгоритм</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$G$6:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LIN_4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LIN_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$I$3:$I$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$I$6:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C770-4EB7-B5E9-488CC65BE86A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Сравнение заполняемости'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Алгоритм имитации отжига</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$G$3:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$G$6:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LIN_4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LIN_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Сравнение заполняемости'!$J$3:$J$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Сравнение заполняемости'!$J$6:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C770-4EB7-B5E9-488CC65BE86A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1202476959"/>
+        <c:axId val="1202480703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1202476959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>имя сервера</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202480703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1202480703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Заполненность </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>hdd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202476959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
               <a:t>Использование </a:t>
             </a:r>
             <a:r>
@@ -4864,7 +5303,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -5502,7 +5941,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -8229,6 +8668,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'% свободных серверов(10серверов'!$I$3:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'% свободных серверов(10серверов'!$J$3:$J$13</c:f>
@@ -8330,7 +8811,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'% свободных серверов(10серверов'!$F$3:$F$13</c15:sqref>
+                          <c15:sqref>'% свободных серверов(10серверов'!$I$3:$I$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8450,10 +8931,10 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'% свободных серверов(10серверов'!$F$3:$F$13</c15:sqref>
+                          <c15:sqref>'% свободных серверов(10серверов'!$I$3:$I$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10451,6 +10932,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10772,6 +11293,544 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16015,6 +17074,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E74CF5B-EB2D-4CA1-97EF-7CE00844322C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -16240,7 +17342,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16279,6 +17381,68 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="F5">
+            <v>1</v>
+          </cell>
+          <cell r="G5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>15</v>
+          </cell>
+          <cell r="G6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>22</v>
+          </cell>
+          <cell r="G7">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>65</v>
+          </cell>
+          <cell r="G8">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>119</v>
+          </cell>
+          <cell r="G9">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>219</v>
+          </cell>
+          <cell r="G10">
+            <v>2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16850,7 +18014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C230857-32B3-44AC-BD72-0940337CF7F7}">
   <dimension ref="C1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -17513,7 +18677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F72358-961F-4AC2-9383-C4E947969187}">
   <dimension ref="C1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="I40" workbookViewId="0">
+    <sheetView topLeftCell="G30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -18060,6 +19224,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A21CFF-42E4-4616-8639-9A8C36EB1590}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14176A4F-4656-4A55-B791-8C3BE41BDB86}">
   <dimension ref="B3:O23"/>
   <sheetViews>
@@ -18458,7 +19637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB825C20-96F5-47BD-A2E4-C53225734F7A}">
   <dimension ref="B1:Q7"/>
   <sheetViews>
@@ -18762,11 +19941,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5C7700-9C78-47DF-8A2D-36AB2E00CFDE}">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>

--- a/Сравнение эффективности алгоритмов.xlsx
+++ b/Сравнение эффективности алгоритмов.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79535\Desktop\Диплом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4994A85E-07E6-4F5F-B317-6AE5D199CFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A1AC84-DB06-4E75-AAA3-5A369ABEE8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{211160BF-2A63-4B5C-BAA6-6A02063159D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{211160BF-2A63-4B5C-BAA6-6A02063159D2}"/>
   </bookViews>
   <sheets>
     <sheet name="% занятых серверов" sheetId="1" r:id="rId1"/>
@@ -396,6 +396,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1273,7 +1278,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'% свободных серверов(5серверов'!$I$3:$I$13</c15:sqref>
@@ -1571,6 +1576,12 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1954,12 +1965,7 @@
       <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2617,12 +2623,7 @@
       <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3283,12 +3284,7 @@
       <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3960,12 +3956,7 @@
       <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4619,12 +4610,7 @@
       <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5275,12 +5261,7 @@
       <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5913,12 +5894,7 @@
       <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -6215,7 +6191,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="# ##0,00" sourceLinked="0"/>
+        <c:numFmt formatCode="#\ ##,000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7008,575 +6984,6 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Генетический алгоритм</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'% свободных серверов(10серверов'!$F$3:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'% свободных серверов(10серверов'!$D$3:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-29F5-4F76-8648-25119AA29D8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Алгоритм BFD</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'% свободных серверов(10серверов'!$F$3:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'% свободных серверов(10серверов'!$G$3:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-29F5-4F76-8648-25119AA29D8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Алгоритм имитации отжига</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'% свободных серверов(10серверов'!$J$3:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-29F5-4F76-8648-25119AA29D8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="1664134592"/>
-        <c:axId val="1664135008"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1664134592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Количество сервисов</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1664135008"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1664135008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>% свободных серверов</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1664134592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Зависимость количества свободных серверов от количества размещаемых сервисов</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
@@ -8050,6 +7457,12 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -8068,7 +7481,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -8579,6 +7992,12 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -8597,7 +8016,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -8931,7 +8350,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'% свободных серверов(10серверов'!$I$3:$I$13</c15:sqref>
@@ -9229,6 +8648,594 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость количества свободных серверов от количества размещаемых сервисов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Генетический алгоритм</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'% свободных серверов(10серверов'!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'% свободных серверов(10серверов'!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8263-4AC6-9D0B-3DBB2A7B1E2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Алгоритм BFD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'% свободных серверов(10серверов'!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'% свободных серверов(10серверов'!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8263-4AC6-9D0B-3DBB2A7B1E2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Алгоритм имитации отжига</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'% свободных серверов(10серверов'!$J$3:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8263-4AC6-9D0B-3DBB2A7B1E2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1664134592"/>
+        <c:axId val="1664135008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1664134592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество сервисов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664135008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1664135008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>% свободных серверов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664134592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -9311,7 +9318,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9526,6 +9533,13 @@
           <c:tx>
             <c:v>Алгоритм имитации отжига</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -9798,6 +9812,12 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -10345,6 +10365,12 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -10874,6 +10900,12 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -16760,23 +16792,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>5604</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>197782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>216839</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>132664</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344B1A15-3125-406E-A26C-54F8629CECF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B8FA8D-846D-4543-9224-EE639874342B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16798,23 +16830,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>274545</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7283</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>284070</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22410</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>200029</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>2117</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B8FA8D-846D-4543-9224-EE639874342B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED7B29-68C0-4B62-842E-315B46440ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16836,23 +16868,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>251572</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:colOff>200029</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>136588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED7B29-68C0-4B62-842E-315B46440ABD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{656B9A5C-C379-4C4B-84AD-EA5C6FEBF1C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16874,23 +16906,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>582707</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>374837</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>95532</xdr:rowOff>
+      <xdr:colOff>188825</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>69353</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4">
+        <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{656B9A5C-C379-4C4B-84AD-EA5C6FEBF1C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44003940-3AD7-4037-A268-1CE766F183E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16923,10 +16955,10 @@
       <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1364249</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>52686</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16961,10 +16993,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33339</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>41635</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>124125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16994,15 +17026,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>138114</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>599528</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>92829</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17032,15 +17064,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>176894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>61914</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>813</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>24794</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17075,15 +17107,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>523874</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>497474</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>181275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17124,9 +17156,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>326024</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17153,16 +17185,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>306975</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17198,9 +17230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>354600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17228,15 +17260,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>449850</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>116700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17272,9 +17304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>421276</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17304,15 +17336,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>468900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>78600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17878,7 +17910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E461EBC0-C95F-4473-8A5E-446AEB77BC3B}">
   <dimension ref="C1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -18014,8 +18046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C230857-32B3-44AC-BD72-0940337CF7F7}">
   <dimension ref="C1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="L88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18677,8 +18709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F72358-961F-4AC2-9383-C4E947969187}">
   <dimension ref="C1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="G30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19227,8 +19259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A21CFF-42E4-4616-8639-9A8C36EB1590}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19641,8 +19673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB825C20-96F5-47BD-A2E4-C53225734F7A}">
   <dimension ref="B1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19945,8 +19977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5C7700-9C78-47DF-8A2D-36AB2E00CFDE}">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
